--- a/BY.X BOUTIQUE 月统计.xlsx
+++ b/BY.X BOUTIQUE 月统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880E4F4-6496-4313-935B-FE42911B13D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1BC6E-7C1C-423A-8A20-1574BBC53CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="10428" yWindow="0" windowWidth="9132" windowHeight="12360" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="下单统计" sheetId="6" r:id="rId1"/>
@@ -642,7 +642,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BY.X BOUTIQUE 月统计.xlsx
+++ b/BY.X BOUTIQUE 月统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1BC6E-7C1C-423A-8A20-1574BBC53CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9B46B-AC5B-4A97-B9F2-80ABA5464BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10428" yWindow="0" windowWidth="9132" windowHeight="12360" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="下单统计" sheetId="6" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +60,10 @@
   </si>
   <si>
     <t>七月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +640,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -709,10 +707,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3086.93</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -731,11 +737,11 @@
     <row r="10" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C10" s="14">
         <f>SUM(C2:C9)</f>
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(D2:D9)</f>
-        <v>3489.96</v>
+        <v>6576.8899999999994</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,11 +753,12 @@
     <hyperlink ref="A2" r:id="rId1" display="BY.X BOUTIQUE五月订单.xlsx" xr:uid="{D2C50469-D312-4363-9A10-7431B45F0396}"/>
     <hyperlink ref="A3" r:id="rId2" display="BY.X BOUTIQUE六月订单.xlsx" xr:uid="{76370282-D6A3-4AFA-AD0A-3909A4F69CF1}"/>
     <hyperlink ref="A4" r:id="rId3" display="BY.X BOUTIQUE七月订单.xlsx" xr:uid="{2E574B8A-46DB-4A3D-B60A-1923D8AAB032}"/>
+    <hyperlink ref="A5" r:id="rId4" display="BY.X BOUTIQUE八月订单.xlsx" xr:uid="{94970B95-BAC6-4770-95B9-6903E377873B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BY.X BOUTIQUE 月统计.xlsx
+++ b/BY.X BOUTIQUE 月统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9B46B-AC5B-4A97-B9F2-80ABA5464BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927928E7-B439-4B74-9EFF-1CB5A5D314CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,46 @@
   </si>
   <si>
     <t>八月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>758.05*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[货款]接受箱提现：1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[货款]接受箱提现：4233 / 已包含7月收益零头：29.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>770*2 / 773*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[货款]八月收益：1546.93（10.9已结:1546）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,11 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -129,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,6 +218,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -189,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +285,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -241,7 +308,17 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="汇总" xfId="2" builtinId="25"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -328,13 +405,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9048804-5556-4A84-95BF-149AB92C505D}" name="表1" displayName="表1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="汇总" dataCellStyle="汇总">
-  <autoFilter ref="A1:D6" xr:uid="{3511C254-3102-4222-89E2-E50831232A38}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{57038ABF-7C32-429F-A9FA-0E046DCDF588}" name="序号" dataDxfId="3" dataCellStyle="超链接"/>
-    <tableColumn id="2" xr3:uid="{A6A9DF33-6439-48BA-AD15-02C49CFE76A5}" name="月份" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{17DF0527-C43C-4149-8C3A-73AA5C643324}" name="数量" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{751A3E69-8056-4B75-9EB4-610C675CBEDB}" name="总盈" dataDxfId="0" dataCellStyle="汇总"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9048804-5556-4A84-95BF-149AB92C505D}" name="表1" displayName="表1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="汇总" dataCellStyle="汇总">
+  <autoFilter ref="A1:F6" xr:uid="{3511C254-3102-4222-89E2-E50831232A38}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{57038ABF-7C32-429F-A9FA-0E046DCDF588}" name="序号" dataDxfId="4" dataCellStyle="超链接"/>
+    <tableColumn id="2" xr3:uid="{A6A9DF33-6439-48BA-AD15-02C49CFE76A5}" name="月份" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{17DF0527-C43C-4149-8C3A-73AA5C643324}" name="数量" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{751A3E69-8056-4B75-9EB4-610C675CBEDB}" name="总盈" dataDxfId="1" dataCellStyle="汇总"/>
+    <tableColumn id="6" xr3:uid="{2EBDCF9D-D842-46EA-B4D7-B82FF65F52B0}" name="已结盈利" dataDxfId="0" dataCellStyle="汇总"/>
+    <tableColumn id="5" xr3:uid="{0CD381B0-BF7A-4A71-A622-47B6BC6A4923}" name="备注" dataCellStyle="汇总"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -637,19 +716,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3A941E-D598-4E42-B440-38C028C5B32B}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -662,8 +743,14 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -676,9 +763,12 @@
       <c r="D2" s="7">
         <v>1044.1099999999999</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -691,8 +781,12 @@
       <c r="D3" s="10">
         <v>1516.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -705,8 +799,14 @@
       <c r="D4" s="10">
         <v>929.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -719,14 +819,33 @@
       <c r="D5" s="10">
         <v>3086.93</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10">
+        <v>676</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
@@ -734,18 +853,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C10" s="14">
-        <f>SUM(C2:C9)</f>
-        <v>219</v>
+        <f>SUM(C2:C8)</f>
+        <v>244</v>
       </c>
       <c r="D10" s="8">
-        <f>SUM(D2:D9)</f>
-        <v>6576.8899999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <f>SUM(D2:D8)</f>
+        <v>7252.8899999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -754,11 +876,12 @@
     <hyperlink ref="A3" r:id="rId2" display="BY.X BOUTIQUE六月订单.xlsx" xr:uid="{76370282-D6A3-4AFA-AD0A-3909A4F69CF1}"/>
     <hyperlink ref="A4" r:id="rId3" display="BY.X BOUTIQUE七月订单.xlsx" xr:uid="{2E574B8A-46DB-4A3D-B60A-1923D8AAB032}"/>
     <hyperlink ref="A5" r:id="rId4" display="BY.X BOUTIQUE八月订单.xlsx" xr:uid="{94970B95-BAC6-4770-95B9-6903E377873B}"/>
+    <hyperlink ref="A6" r:id="rId5" display="BY.X BOUTIQUE九月订单.xlsx" xr:uid="{F5807E29-6701-4E4D-918E-83CF142CB2CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BY.X BOUTIQUE 月统计.xlsx
+++ b/BY.X BOUTIQUE 月统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927928E7-B439-4B74-9EFF-1CB5A5D314CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DF4F36-189D-461D-9068-D9338851D3D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>[货款]八月收益：1546.93（10.9已结:1546）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>694.5*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>777*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -229,6 +245,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -241,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +325,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9048804-5556-4A84-95BF-149AB92C505D}" name="表1" displayName="表1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="汇总" dataCellStyle="汇总">
-  <autoFilter ref="A1:F6" xr:uid="{3511C254-3102-4222-89E2-E50831232A38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9048804-5556-4A84-95BF-149AB92C505D}" name="表1" displayName="表1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="汇总" dataCellStyle="汇总">
+  <autoFilter ref="A1:F8" xr:uid="{3511C254-3102-4222-89E2-E50831232A38}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{57038ABF-7C32-429F-A9FA-0E046DCDF588}" name="序号" dataDxfId="4" dataCellStyle="超链接"/>
     <tableColumn id="2" xr3:uid="{A6A9DF33-6439-48BA-AD15-02C49CFE76A5}" name="月份" dataDxfId="3"/>
@@ -716,16 +747,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3A941E-D598-4E42-B440-38C028C5B32B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -844,30 +874,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
+    <row r="7" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>61</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1555</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>118</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1389.87</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="14">
-        <f>SUM(C2:C8)</f>
-        <v>244</v>
-      </c>
-      <c r="D10" s="8">
-        <f>SUM(D2:D8)</f>
-        <v>7252.8899999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="19"/>
+    <row r="11" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="14">
+        <f>SUM(C2:C9)</f>
+        <v>423</v>
+      </c>
+      <c r="D11" s="14">
+        <f>SUM(D2:D9)</f>
+        <v>10197.759999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -877,11 +942,12 @@
     <hyperlink ref="A4" r:id="rId3" display="BY.X BOUTIQUE七月订单.xlsx" xr:uid="{2E574B8A-46DB-4A3D-B60A-1923D8AAB032}"/>
     <hyperlink ref="A5" r:id="rId4" display="BY.X BOUTIQUE八月订单.xlsx" xr:uid="{94970B95-BAC6-4770-95B9-6903E377873B}"/>
     <hyperlink ref="A6" r:id="rId5" display="BY.X BOUTIQUE九月订单.xlsx" xr:uid="{F5807E29-6701-4E4D-918E-83CF142CB2CE}"/>
+    <hyperlink ref="A7" r:id="rId6" display="BY.X BOUTIQUE十月订单.xlsx" xr:uid="{D97521AA-F3A0-42BF-A0B5-C7E7EE62CD34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
